--- a/realme/Others/Allocation Sheet/realme price list.xlsx
+++ b/realme/Others/Allocation Sheet/realme price list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Realme Allocation Amount Calculation</t>
   </si>
@@ -228,13 +228,16 @@
     <t>5000mAh Battery 6.5'', 720*1600 Pixels HD+Display, Snapdragon 460 Processor, 13/8/2/2 MP+8MP, Android 10, Realme UI</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 21-04-2021)</t>
-  </si>
-  <si>
-    <t>Sopno Electronics</t>
-  </si>
-  <si>
-    <t>Brammopur Bazar, Naldanda</t>
+    <t>Mugdho Corporation</t>
+  </si>
+  <si>
+    <t>Komola Super Market, Alaipur, Natore.</t>
+  </si>
+  <si>
+    <t>RP(TK.)</t>
+  </si>
+  <si>
+    <t>Realme Price List (Last Update 25-04-2021)</t>
   </si>
 </sst>
 </file>
@@ -1630,42 +1633,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="14"/>
+    <col min="3" max="3" width="14.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-    </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
-    </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
@@ -1673,180 +1680,219 @@
         <v>33</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="18">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18">
         <v>8990</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="18">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18">
         <v>10990</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="18">
-        <f>8990+4000</f>
-        <v>12990</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="25">
+        <v>8540</v>
+      </c>
+      <c r="D7" s="18">
+        <f>8990</f>
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="18">
-        <f>10990+4000</f>
-        <v>14990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="25">
+        <v>10290</v>
+      </c>
+      <c r="D8" s="18">
+        <f>10990</f>
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="18">
-        <f>12990+4000</f>
-        <v>16990</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="25">
+        <v>12090</v>
+      </c>
+      <c r="D9" s="18">
+        <f>12990</f>
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="18">
-        <f>13990+4000</f>
-        <v>17990</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="25">
+        <v>13040</v>
+      </c>
+      <c r="D10" s="18">
+        <f>13990</f>
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="18">
-        <f>15490+4000</f>
-        <v>19490</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="25">
+        <v>14540</v>
+      </c>
+      <c r="D11" s="18">
+        <f>15490</f>
+        <v>15490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="18">
-        <f>11990+4000</f>
-        <v>15990</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="C12" s="25">
+        <v>11200</v>
+      </c>
+      <c r="D12" s="18">
+        <f>11990</f>
+        <v>11990</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="18">
-        <f>17990+4000</f>
-        <v>21990</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="25">
+        <v>16810</v>
+      </c>
+      <c r="D13" s="18">
+        <f>17990</f>
+        <v>17990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="18">
-        <f>27990+4000</f>
-        <v>31990</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="25">
+        <v>25910</v>
+      </c>
+      <c r="D14" s="18">
+        <f>27990</f>
+        <v>27990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="23"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="23"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="18">
-        <f>27990+4000</f>
-        <v>31990</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="C17" s="25">
+        <v>25890</v>
+      </c>
+      <c r="D17" s="18">
+        <f>27990</f>
+        <v>27990</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="18">
-        <f>12990+4000</f>
-        <v>16990</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="25">
+        <v>12240</v>
+      </c>
+      <c r="D18" s="18">
+        <f>12990</f>
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="23"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="18"/>
       <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>

--- a/realme/Others/Allocation Sheet/realme price list.xlsx
+++ b/realme/Others/Allocation Sheet/realme price list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>Realme Allocation Amount Calculation</t>
   </si>
@@ -237,7 +237,19 @@
     <t>RP(TK.)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 25-04-2021)</t>
+    <t>C21 (3GB+32GB)</t>
+  </si>
+  <si>
+    <t>C25 (4GB+128GB)</t>
+  </si>
+  <si>
+    <t>C25 (6GB+128GB)</t>
+  </si>
+  <si>
+    <t>8 (8GB+128GB)</t>
+  </si>
+  <si>
+    <t>Realme Price List (Last Update 29-04-2021)</t>
   </si>
 </sst>
 </file>
@@ -569,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,6 +711,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1633,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1669,7 @@
     <col min="5" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>59</v>
       </c>
@@ -1656,7 +1677,7 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>60</v>
       </c>
@@ -1664,15 +1685,15 @@
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>25</v>
       </c>
@@ -1696,7 +1717,7 @@
         <v>8990</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +1727,7 @@
         <v>10990</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>46</v>
       </c>
@@ -1721,7 +1742,7 @@
         <v>8990</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>47</v>
       </c>
@@ -1735,8 +1756,11 @@
         <f>10990</f>
         <v>10990</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +1775,7 @@
         <v>12990</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
@@ -1766,7 +1790,7 @@
         <v>13990</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
@@ -1781,98 +1805,92 @@
         <v>15490</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="J12" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C13" s="25">
         <v>11200</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="18">
         <f>11990</f>
         <v>11990</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J13" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C16" s="25">
         <v>16810</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D16" s="18">
         <f>17990</f>
         <v>17990</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="25">
-        <v>25910</v>
-      </c>
-      <c r="D14" s="18">
-        <f>27990</f>
-        <v>27990</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="18"/>
-    </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C17" s="25">
-        <v>25890</v>
+        <v>25910</v>
       </c>
       <c r="D17" s="18">
         <f>27990</f>
         <v>27990</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="25">
-        <v>12240</v>
-      </c>
-      <c r="D18" s="18">
-        <f>12990</f>
-        <v>12990</v>
-      </c>
+    </row>
+    <row r="18" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
@@ -1880,13 +1898,65 @@
       <c r="C19" s="23"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="H20" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="25">
+        <v>25890</v>
+      </c>
+      <c r="D21" s="18">
+        <f>27990</f>
+        <v>27990</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="25">
+        <v>12240</v>
+      </c>
+      <c r="D22" s="18">
+        <f>12990</f>
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
